--- a/medicine/Psychotrope/90_degrés_à_l'ombre/90_degrés_à_l'ombre.xlsx
+++ b/medicine/Psychotrope/90_degrés_à_l'ombre/90_degrés_à_l'ombre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>90_degr%C3%A9s_%C3%A0_l%27ombre</t>
+          <t>90_degrés_à_l'ombre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">90 degrés à l'ombre est un court métrage français de Norbert Carbonnaux réalisé en 1951.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90_degr%C3%A9s_%C3%A0_l%27ombre</t>
+          <t>90_degrés_à_l'ombre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le problème de l'alcool en France. Le rôle de l'état représenté par des scènes satiriques jouées. Totale anarchie de la production, excès de production, "les bonnes années", exportation, importation…..
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90_degr%C3%A9s_%C3%A0_l%27ombre</t>
+          <t>90_degrés_à_l'ombre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Norbert Carbonnaux
 Distribution : Sofradis
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>90_degr%C3%A9s_%C3%A0_l%27ombre</t>
+          <t>90_degrés_à_l'ombre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christian Duvaleix
 Louis de Funès</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>90_degr%C3%A9s_%C3%A0_l%27ombre</t>
+          <t>90_degrés_à_l'ombre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ressources relatives à l'audiovisuel : Centre national du cinéma et de l'image animée Unifrance 
  Portail du cinéma français   Portail des années 1950   Portail de l'alcool                   </t>
